--- a/Data/Email Tracking Report/PdfDetailsUploadedToQueue.xlsx
+++ b/Data/Email Tracking Report/PdfDetailsUploadedToQueue.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <x:workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a93f2051e428739e/Documents/UiPath/IACET/Data/Email Tracking Report/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_D3AE9C21649D52C0227694D9F27B737CD798E6E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED7CC0FF-3073-483F-8D6F-438475EE71D5}"/>
   <x:bookViews>
-    <x:workbookView firstSheet="0" activeTab="0"/>
+    <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="125725"/>
+  <x:calcPr calcId="0"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <x:si>
     <x:t>Subject</x:t>
   </x:si>
@@ -43,10 +50,10 @@
     <x:t>IACET Project</x:t>
   </x:si>
   <x:si>
-    <x:t>IACET Details.pdf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\pushk\OneDrive\Documents\UiPath\IACET\Data\PDF Attachments</x:t>
+    <x:t>IACET Details 20231004_121638.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\pushk\OneDrive\Documents\UiPath\IACET\Data\Renamed Attachments</x:t>
   </x:si>
   <x:si>
     <x:t>charu grover</x:t>
@@ -55,40 +62,21 @@
     <x:t>grovercharu950@gmail.com</x:t>
   </x:si>
   <x:si>
-    <x:t>09/27/2023 22:34:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\pushk\OneDrive\Documents\UiPath\IACET\Data\PDF Attachments\IACET Details.pdf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IACET Dispatcher SDD_Firoz.pdf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09/27/2023 22:32:43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\pushk\OneDrive\Documents\UiPath\IACET\Data\PDF Attachments\IACET Dispatcher SDD_Firoz.pdf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09/27/2023 00:06:32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IACET ERDT PROCESS.pdf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\pushk\OneDrive\Documents\UiPath\IACET\Data\PDF Attachments\IACET ERDT PROCESS.pdf</x:t>
+    <x:t>10/04/2023 12:16:38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\pushk\OneDrive\Documents\UiPath\IACET\Data\Renamed Attachments\IACET Details 20231004_121638.pdf</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="1" x14ac:knownFonts="1">
     <x:font>
-      <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
@@ -104,38 +92,32 @@
     </x:fill>
   </x:fills>
   <x:borders count="1">
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </x:cellStyleXfs>
   <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </x:ext>
+  </x:extLst>
 </x:styleSheet>
 </file>
 
@@ -423,17 +405,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H5"/>
+  <x:dimension ref="A1:H1"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="A2" sqref="A2 2:3"/>
+    </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <x:cols>
+    <x:col min="1" max="1" width="11.816406" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="31" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="70.363281" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="12" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="24.542969" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="26.089844" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="7" width="101.542969" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="8" max="8" width="9" style="0" bestFit="1" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:8">
+    <x:row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -480,75 +474,6 @@
       </x:c>
       <x:c r="G2" s="0" t="s">
         <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:8">
-      <x:c r="A3" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:8">
-      <x:c r="A4" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:8">
-      <x:c r="A5" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
